--- a/Documentation/Backlog/Product Backlog.xlsx
+++ b/Documentation/Backlog/Product Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkapa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkapa\PlanetsDemo\Documentation\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8C4F4-AA30-4307-95EA-84759B1B4A79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1712D7-C7DE-4A84-AC2B-93B4EB71DBDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A315CB9D-4610-486D-9790-EC8366B15814}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Handles everything the user wants to do within the program</t>
   </si>
   <si>
-    <t>Astrophysics</t>
-  </si>
-  <si>
     <t>Server</t>
   </si>
   <si>
@@ -102,7 +99,10 @@
     <t>A little bit</t>
   </si>
   <si>
-    <t>Handles all the heavy calculations, such as how planets interact with each other and hold the laws of the universe (such as gravity)</t>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Shows accurate physics, such as the roation and oribit time, how the sun interacts with the planets, etc</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91851E2-75D6-4AAA-A041-4066DA756666}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -539,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -581,21 +581,21 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -603,30 +603,30 @@
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Backlog/Product Backlog.xlsx
+++ b/Documentation/Backlog/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkapa\PlanetsDemo\Documentation\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1712D7-C7DE-4A84-AC2B-93B4EB71DBDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62526B6-3897-4194-A6C4-9E0C132AA74E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A315CB9D-4610-486D-9790-EC8366B15814}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Different music plays when the user "visits" a planet</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Universe</t>
   </si>
   <si>
@@ -96,13 +93,16 @@
     <t xml:space="preserve">A universe class that holds all the planets and manages the camera. </t>
   </si>
   <si>
-    <t>A little bit</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
     <t>Shows accurate physics, such as the roation and oribit time, how the sun interacts with the planets, etc</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Tests different things when a button is pressed. All the tests run at the same time to see if that certain test is passed or not</t>
   </si>
 </sst>
 </file>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91851E2-75D6-4AAA-A041-4066DA756666}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -556,15 +556,15 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -575,38 +575,38 @@
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -617,16 +617,30 @@
     </row>
     <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
